--- a/docs/developer/Loinc428 subset for questions.xlsx
+++ b/docs/developer/Loinc428 subset for questions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="187">
   <si>
     <t>LOINC_NUM</t>
   </si>
@@ -363,48 +363,6 @@
   </si>
   <si>
     <t>During the past Y, have you received a transfusion of blood or blood products, or have you been given immune gamma globulin or an antiviral drug [PhenX]</t>
-  </si>
-  <si>
-    <t>6638-1</t>
-  </si>
-  <si>
-    <t>Influenza virus A Texas Ab</t>
-  </si>
-  <si>
-    <t>ACnc</t>
-  </si>
-  <si>
-    <t>Ser</t>
-  </si>
-  <si>
-    <t>Qn</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>MICRO</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>FLUAV Tex; Avian influenza; Fowl plague; Influenza A virus; FLUA; Bird flu; FLUV; Influ; Arbitrary concentration; Point in time; Random; Serum; SR; Quantitative; QNT; Quant; Quan; Hemagglutination inhibition; HI; ABS; Antibodies; Autoantibody; Antibody; Autoantibodies; Antby; Aby; Anti; Microbiology</t>
-  </si>
-  <si>
-    <t>FLUAV Tex Ab Ser HAI-aCnc</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Influenza virus A Texas Ab [Units/volume] in Serum by Hemagglutination inhibition</t>
   </si>
   <si>
     <t>66381-5</t>
@@ -944,16 +902,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV21"/>
+  <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="151.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="110" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" customWidth="1"/>
+    <col min="29" max="29" width="41.28515625" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" customWidth="1"/>
+    <col min="32" max="32" width="22.28515625" customWidth="1"/>
+    <col min="33" max="33" width="28.42578125" customWidth="1"/>
+    <col min="34" max="34" width="15.85546875" customWidth="1"/>
+    <col min="36" max="36" width="18" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" customWidth="1"/>
+    <col min="38" max="38" width="29" customWidth="1"/>
+    <col min="39" max="39" width="19.85546875" customWidth="1"/>
+    <col min="40" max="40" width="22.140625" customWidth="1"/>
+    <col min="41" max="41" width="24.42578125" customWidth="1"/>
+    <col min="42" max="42" width="16.28515625" customWidth="1"/>
+    <col min="43" max="43" width="13.140625" customWidth="1"/>
+    <col min="44" max="44" width="24.28515625" customWidth="1"/>
+    <col min="45" max="45" width="20.7109375" customWidth="1"/>
+    <col min="46" max="47" width="22.85546875" customWidth="1"/>
+    <col min="48" max="48" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
@@ -1678,52 +1679,58 @@
         <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="J10">
-        <v>19960424</v>
+        <v>20110613</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
       </c>
       <c r="Z10" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="AC10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AI10" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>64</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -1737,10 +1744,10 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -1776,10 +1783,10 @@
         <v>2</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Z11" t="s">
         <v>60</v>
@@ -1788,10 +1795,10 @@
         <v>61</v>
       </c>
       <c r="AC11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AI11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AJ11" t="s">
         <v>64</v>
@@ -1808,10 +1815,10 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -1847,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z12" t="s">
         <v>60</v>
@@ -1859,10 +1866,10 @@
         <v>61</v>
       </c>
       <c r="AC12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AI12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="AJ12" t="s">
         <v>64</v>
@@ -1879,10 +1886,10 @@
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -1918,22 +1925,22 @@
         <v>2</v>
       </c>
       <c r="X13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Z13" t="s">
         <v>60</v>
       </c>
       <c r="AB13" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="AC13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AI13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AJ13" t="s">
         <v>64</v>
@@ -1950,10 +1957,10 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -1989,22 +1996,22 @@
         <v>2</v>
       </c>
       <c r="X14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s">
         <v>60</v>
       </c>
       <c r="AB14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="AC14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AI14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AJ14" t="s">
         <v>64</v>
@@ -2021,10 +2028,10 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -2060,22 +2067,22 @@
         <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Z15" t="s">
         <v>60</v>
       </c>
       <c r="AB15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AC15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AI15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AJ15" t="s">
         <v>64</v>
@@ -2092,10 +2099,10 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -2131,22 +2138,22 @@
         <v>2</v>
       </c>
       <c r="X16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Z16" t="s">
         <v>60</v>
       </c>
       <c r="AB16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AC16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AI16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AJ16" t="s">
         <v>64</v>
@@ -2163,10 +2170,10 @@
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -2202,22 +2209,22 @@
         <v>2</v>
       </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Z17" t="s">
         <v>60</v>
       </c>
       <c r="AB17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AC17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AI17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AJ17" t="s">
         <v>64</v>
@@ -2234,10 +2241,10 @@
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
@@ -2273,22 +2280,22 @@
         <v>2</v>
       </c>
       <c r="X18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Z18" t="s">
         <v>60</v>
       </c>
       <c r="AB18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AC18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AI18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AJ18" t="s">
         <v>64</v>
@@ -2305,10 +2312,10 @@
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -2344,22 +2351,22 @@
         <v>2</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Z19" t="s">
         <v>60</v>
       </c>
       <c r="AB19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AC19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AI19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="AJ19" t="s">
         <v>64</v>
@@ -2376,10 +2383,10 @@
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -2415,22 +2422,22 @@
         <v>2</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Z20" t="s">
         <v>60</v>
       </c>
       <c r="AB20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AC20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AI20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AJ20" t="s">
         <v>64</v>
@@ -2442,77 +2449,6 @@
         <v>0</v>
       </c>
       <c r="AU20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21">
-        <v>20110613</v>
-      </c>
-      <c r="K21" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-      <c r="X21" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
         <v>0</v>
       </c>
     </row>
